--- a/zzz_lib/code and data/app_data/metric_tables.xlsx
+++ b/zzz_lib/code and data/app_data/metric_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07671965-672A-4B7C-B12C-7585E0221F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{07671965-672A-4B7C-B12C-7585E0221F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB74FD5-696E-4664-ABF0-DE0EA37DC25E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2370" windowWidth="29040" windowHeight="15720" xr2:uid="{692BF238-EB5D-4EA1-B60C-5C9888F127F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{692BF238-EB5D-4EA1-B60C-5C9888F127F8}"/>
   </bookViews>
   <sheets>
     <sheet name="metric" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>page</t>
   </si>
   <si>
-    <t>Sandwich Generation Population</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
   </si>
   <si>
     <t>{0,1}</t>
-  </si>
-  <si>
-    <t>Daily Caregiving Hours</t>
   </si>
   <si>
     <t>sandwich-time</t>
@@ -306,6 +300,12 @@
   </si>
   <si>
     <t>2023 ACS 5-Year Estimates, Table B18101 &amp; Table S0101, US Census Bureau; 2024 CPS ASEC &amp; 5-year pooled ATUS (2018-2023, excluding 2020), US Census Bureau via IPUMS; 2024 Quarterly Census of Employment and Wages</t>
+  </si>
+  <si>
+    <t>Sandwich Generation: Population</t>
+  </si>
+  <si>
+    <t>Sandwich Generation: Daily Caregiving Hours</t>
   </si>
 </sst>
 </file>
@@ -716,15 +716,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0009D36D-AEED-4632-A201-2F17FDFE033D}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="174" style="5" bestFit="1" customWidth="1"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="2" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>2</v>
@@ -794,33 +794,33 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>4</v>
@@ -829,290 +829,290 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1196,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>

--- a/zzz_lib/code and data/app_data/metric_tables.xlsx
+++ b/zzz_lib/code and data/app_data/metric_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{07671965-672A-4B7C-B12C-7585E0221F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB74FD5-696E-4664-ABF0-DE0EA37DC25E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{07671965-672A-4B7C-B12C-7585E0221F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45A38A3-C429-4051-8D72-A50BE9B2F1EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{692BF238-EB5D-4EA1-B60C-5C9888F127F8}"/>
   </bookViews>
@@ -246,10 +246,6 @@
     <t>To understand how care needs are met across the U.S., we begin by measuring the balance between those who need care and those who can provide it. Two key metrics help us assess this:</t>
   </si>
   <si>
-    <t>The &lt;b&gt;Gini Coefficient of Formal Care&lt;/b&gt; measures how equitably formal care jobs are distributed among those who need care.
-A Gini Coefficient of 0 would indicate perfect equality, meaning formal care jobs are evenly distributed across the population in need. A higher Gini signals greater inequality in care accessibility.</t>
-  </si>
-  <si>
     <t>The &lt;b&gt;Care Ratio&lt;/b&gt; compares the number of individuals needing care—children, disabled, &amp; elderly adults—to the number of available able-bodied adult caregivers in both the formal and informal economy.
 A Care Ratio of one means there is one caregiver for every person in need. A ratio below one indicates a higher number of people in need of care for each available provider. A ratio above one is a higher number of people available to provide care than those needing care.</t>
   </si>
@@ -306,6 +302,9 @@
   </si>
   <si>
     <t>Sandwich Generation: Daily Caregiving Hours</t>
+  </si>
+  <si>
+    <t>The &lt;b&gt;Gini Coefficient of Formal Care&lt;/b&gt; measures how formal care jobs are geographically distributed across the U.S. among those individuals at risk of needing care. A Gini Coefficient of 0 would indicate perfect equality, meaning formal care jobs are evenly located in areas where at-risk individuals reside. A higher Gini Coefficient signals a greater mismatch in the availability of care by location. A Gini Coefficient usually measures income inequality, but here we use it to measure spatial inequality of care services to the population most at-risk of needing those services.</t>
   </si>
 </sst>
 </file>
@@ -717,7 +716,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>54</v>
@@ -794,13 +793,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -811,7 +810,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>37</v>
@@ -829,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -843,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>53</v>
@@ -864,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>59</v>
@@ -878,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>66</v>
@@ -899,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>58</v>
@@ -916,10 +915,10 @@
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -934,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>56</v>
@@ -951,10 +950,10 @@
         <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
@@ -969,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>57</v>
@@ -986,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>32</v>
@@ -1004,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>56</v>
@@ -1021,7 +1020,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -1039,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>57</v>
@@ -1059,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
@@ -1074,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>56</v>
@@ -1094,7 +1093,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
@@ -1109,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>57</v>
@@ -1210,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>

--- a/zzz_lib/code and data/app_data/metric_tables.xlsx
+++ b/zzz_lib/code and data/app_data/metric_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{07671965-672A-4B7C-B12C-7585E0221F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45A38A3-C429-4051-8D72-A50BE9B2F1EE}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{07671965-672A-4B7C-B12C-7585E0221F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1DF35AC-F96F-4BC4-926E-CE642AAE8478}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{692BF238-EB5D-4EA1-B60C-5C9888F127F8}"/>
   </bookViews>
@@ -195,12 +195,6 @@
     <t>Informal Care Force Participation</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Formal Economic Value of Care&lt;/b&gt; estimates the total annual economic contribution of formal care work by aggregating the salaries of all formal care workers. </t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Informal Economic Value of Care&lt;/b&gt; estimates the total annual economic contribution of unpaid care work by multiplying the total hours spent in informal care activities by the federal minimum wage. This is a lower-bound estimate of the value of informal care.</t>
-  </si>
-  <si>
     <t>Working-age adults caring for a child and an elderly adult.</t>
   </si>
   <si>
@@ -250,15 +244,9 @@
 A Care Ratio of one means there is one caregiver for every person in need. A ratio below one indicates a higher number of people in need of care for each available provider. A ratio above one is a higher number of people available to provide care than those needing care.</t>
   </si>
   <si>
-    <t>&lt;b&gt;The Informal Care Force Participation&lt;/b&gt; metric tracks the share of the total population (aged 18 and over) engaged in at least 3 hours of informal, unpaid care work in a day.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;The Sandwich Generation Population&lt;/b&gt; tracks the number of adults balancing the responsibilities of caring for both a child under 10 and an elderly adult.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;The Formal Care Force Participation&lt;/b&gt; metric tracks the share of the total population (aged 18 and over) employed in formal care occupations among all those working or looking for work. </t>
-  </si>
-  <si>
     <t>per day</t>
   </si>
   <si>
@@ -268,12 +256,6 @@
     <t>in informal care force</t>
   </si>
   <si>
-    <t>&lt;b&gt;Formal Care Hours Worked&lt;/b&gt; refers to the total hours worked in a day in paid care jobs by the entire U.S. population (aged 18 and over), also shown as the share of all formal hours worked in a day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Informal Care Hours Worked&lt;/b&gt; refers to the total hours worked in unpaid care activities in a day by the entire U.S. population (aged 18 and over), also shown as the share of all informal hours worked in a day. </t>
-  </si>
-  <si>
     <t>Care Force</t>
   </si>
   <si>
@@ -305,6 +287,24 @@
   </si>
   <si>
     <t>The &lt;b&gt;Gini Coefficient of Formal Care&lt;/b&gt; measures how formal care jobs are geographically distributed across the U.S. among those individuals at risk of needing care. A Gini Coefficient of 0 would indicate perfect equality, meaning formal care jobs are evenly located in areas where at-risk individuals reside. A higher Gini Coefficient signals a greater mismatch in the availability of care by location. A Gini Coefficient usually measures income inequality, but here we use it to measure spatial inequality of care services to the population most at-risk of needing those services.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;The Informal Care Force Participation&lt;/b&gt; metric tracks the share of the total population (aged 18 and over) engaged in at least 3 hours of informal, unpaid care work in a day. &lt;b&gt;pp = percentage point&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Informal Care Hours Worked&lt;/b&gt; refers to the total hours worked in unpaid care activities in a day by the entire U.S. population (aged 18 and over), also shown as the share of all informal hours worked in a day. &lt;b&gt;pp = percentage point&lt;/b&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Formal Economic Value of Care&lt;/b&gt; estimates the total annual economic contribution of formal care work by aggregating the salaries of all formal care workers. &lt;b&gt;pp = percentage point&lt;/b&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Informal Economic Value of Care&lt;/b&gt; estimates the total annual economic contribution of unpaid care work by multiplying the total hours spent in informal care activities by the federal minimum wage. This is a lower-bound estimate of the value of informal care. &lt;b&gt;pp = percentage point&lt;/b&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Formal Care Hours Worked&lt;/b&gt; refers to the total hours worked in a day in paid care jobs by the entire U.S. population (aged 18 and over), also shown as the share of all formal hours worked in a day. &lt;b&gt;pp = percentage point&lt;/b&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;The Formal Care Force Participation&lt;/b&gt; metric tracks the share of the total population (aged 18 and over) employed in formal care occupations among all those working or looking for work. &lt;b&gt;pp = percentage point&lt;/b&gt; </t>
   </si>
 </sst>
 </file>
@@ -394,6 +394,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0009D36D-AEED-4632-A201-2F17FDFE033D}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>2</v>
@@ -793,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
@@ -807,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>38</v>
@@ -828,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -842,13 +846,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -863,24 +867,24 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -898,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -915,10 +919,10 @@
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -933,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -950,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
@@ -968,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -985,7 +989,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>32</v>
@@ -994,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
@@ -1003,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -1029,7 +1033,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
@@ -1038,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1055,10 +1059,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
@@ -1073,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1090,10 +1094,10 @@
         <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
@@ -1108,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,7 +1182,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1209,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
